--- a/ini_ss.xlsx
+++ b/ini_ss.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>marriage</t>
   </si>
@@ -57,12 +57,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:M217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K38" sqref="H38:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +427,23 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -440,8 +462,26 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>7.0529999999999999</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -460,8 +500,26 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>8.7530000000000001</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -480,8 +538,26 @@
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>10.452999999999999</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -500,8 +576,26 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>9.0530000000000008</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -520,8 +614,26 @@
       <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>10.753</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -540,8 +652,26 @@
       <c r="F7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>12.452999999999999</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -560,8 +690,26 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>11.053000000000001</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -580,8 +728,26 @@
       <c r="F9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>12.753</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -600,8 +766,26 @@
       <c r="F10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>14.452999999999999</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -620,8 +804,26 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>7.0529999999999999</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -640,8 +842,26 @@
       <c r="F12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>8.7530000000000001</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -660,8 +880,26 @@
       <c r="F13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>10.452999999999999</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -680,8 +918,26 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>9.0530000000000008</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -700,8 +956,26 @@
       <c r="F15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>10.753</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -720,8 +994,26 @@
       <c r="F16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>12.452999999999999</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -740,8 +1032,26 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>11.053000000000001</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -760,8 +1070,26 @@
       <c r="F18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>12.753</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -780,8 +1108,26 @@
       <c r="F19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>14.452999999999999</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -800,8 +1146,26 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>7.0529999999999999</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -820,8 +1184,26 @@
       <c r="F21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>8.7530000000000001</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -840,8 +1222,26 @@
       <c r="F22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>10.452999999999999</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -860,8 +1260,26 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>9.0530000000000008</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -880,8 +1298,26 @@
       <c r="F24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>10.753</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -900,8 +1336,26 @@
       <c r="F25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>12.452999999999999</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -920,8 +1374,26 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>11.053000000000001</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -940,8 +1412,26 @@
       <c r="F27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>12.753</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -960,8 +1450,26 @@
       <c r="F28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>14.452999999999999</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -980,8 +1488,26 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H29" s="1">
+        <v>8.7858999999999998</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1000,8 +1526,26 @@
       <c r="F30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>10.485900000000001</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1020,8 +1564,26 @@
       <c r="F31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>12.1859</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1040,8 +1602,26 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>10.7859</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1060,8 +1640,26 @@
       <c r="F33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>12.485900000000001</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1080,8 +1678,26 @@
       <c r="F34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>14.1859</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1100,8 +1716,26 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>12.7859</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1120,8 +1754,26 @@
       <c r="F36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>14.485900000000001</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -1140,8 +1792,26 @@
       <c r="F37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>16.1859</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1160,8 +1830,26 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H38" s="1">
+        <v>8.7858999999999998</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -1180,8 +1868,26 @@
       <c r="F39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>10.485900000000001</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1200,8 +1906,26 @@
       <c r="F40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>12.1859</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -1220,8 +1944,26 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>10.7859</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -1240,8 +1982,26 @@
       <c r="F42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>12.485900000000001</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -1260,8 +2020,26 @@
       <c r="F43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>14.1859</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
@@ -1280,8 +2058,26 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>12.7859</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
@@ -1300,8 +2096,26 @@
       <c r="F45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>14.485900000000001</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
@@ -1320,8 +2134,26 @@
       <c r="F46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>16.1859</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
@@ -1340,8 +2172,26 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>8.7858999999999998</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -1360,8 +2210,26 @@
       <c r="F48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>10.485900000000001</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -1380,8 +2248,26 @@
       <c r="F49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>12.1859</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -1400,8 +2286,26 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>10.7859</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0</v>
       </c>
@@ -1420,8 +2324,26 @@
       <c r="F51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>12.485900000000001</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1440,8 +2362,26 @@
       <c r="F52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>14.1859</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1460,8 +2400,26 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>12.7859</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1480,8 +2438,26 @@
       <c r="F54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>14.485900000000001</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1500,8 +2476,26 @@
       <c r="F55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>16.1859</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -1520,8 +2514,26 @@
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>11.125</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
@@ -1540,8 +2552,26 @@
       <c r="F57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>12.824999999999999</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0</v>
       </c>
@@ -1560,8 +2590,26 @@
       <c r="F58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>14.525</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
@@ -1580,8 +2628,26 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>13.125</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0</v>
       </c>
@@ -1600,8 +2666,26 @@
       <c r="F60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>14.824999999999999</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -1620,8 +2704,26 @@
       <c r="F61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>16.524999999999999</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0</v>
       </c>
@@ -1640,8 +2742,26 @@
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>15.125</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>3</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0</v>
       </c>
@@ -1660,8 +2780,26 @@
       <c r="F63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>16.824999999999999</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0</v>
       </c>
@@ -1680,8 +2818,26 @@
       <c r="F64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>18.524999999999999</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
@@ -1700,8 +2856,26 @@
       <c r="F65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <v>11.125</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0</v>
       </c>
@@ -1720,8 +2894,26 @@
       <c r="F66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>12.824999999999999</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0</v>
       </c>
@@ -1740,8 +2932,26 @@
       <c r="F67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>14.525</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0</v>
       </c>
@@ -1760,8 +2970,26 @@
       <c r="F68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>13.125</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0</v>
       </c>
@@ -1780,8 +3008,26 @@
       <c r="F69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>14.824999999999999</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0</v>
       </c>
@@ -1800,8 +3046,26 @@
       <c r="F70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>16.524999999999999</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0</v>
       </c>
@@ -1820,8 +3084,26 @@
       <c r="F71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>15.125</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0</v>
       </c>
@@ -1840,8 +3122,26 @@
       <c r="F72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>16.824999999999999</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>3</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0</v>
       </c>
@@ -1860,8 +3160,26 @@
       <c r="F73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>18.524999999999999</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0</v>
       </c>
@@ -1880,8 +3198,26 @@
       <c r="F74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>11.125</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0</v>
       </c>
@@ -1900,8 +3236,26 @@
       <c r="F75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <v>12.824999999999999</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0</v>
       </c>
@@ -1920,8 +3274,26 @@
       <c r="F76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <v>14.525</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
@@ -1940,8 +3312,26 @@
       <c r="F77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>13.125</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <v>3</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0</v>
       </c>
@@ -1960,8 +3350,26 @@
       <c r="F78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <v>14.824999999999999</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0</v>
       </c>
@@ -1980,8 +3388,26 @@
       <c r="F79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <v>16.524999999999999</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0</v>
       </c>
@@ -2000,8 +3426,26 @@
       <c r="F80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <v>15.125</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0</v>
       </c>
@@ -2020,8 +3464,26 @@
       <c r="F81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <v>16.824999999999999</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0</v>
       </c>
@@ -2040,8 +3502,26 @@
       <c r="F82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <v>18.524999999999999</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>3</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0</v>
       </c>
@@ -2060,8 +3540,26 @@
       <c r="F83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>14.282500000000001</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0</v>
       </c>
@@ -2080,8 +3578,26 @@
       <c r="F84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <v>15.9825</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0</v>
       </c>
@@ -2100,8 +3616,26 @@
       <c r="F85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <v>17.682500000000001</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>4</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0</v>
       </c>
@@ -2120,8 +3654,26 @@
       <c r="F86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <v>16.282499999999999</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>4</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0</v>
       </c>
@@ -2140,8 +3692,26 @@
       <c r="F87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <v>17.982500000000002</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>4</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0</v>
       </c>
@@ -2160,8 +3730,26 @@
       <c r="F88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <v>19.682500000000001</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>4</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0</v>
       </c>
@@ -2180,8 +3768,26 @@
       <c r="F89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <v>18.282499999999999</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0</v>
       </c>
@@ -2200,8 +3806,26 @@
       <c r="F90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <v>19.982500000000002</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0</v>
       </c>
@@ -2220,8 +3844,26 @@
       <c r="F91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <v>21.682500000000001</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>4</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2240,8 +3882,26 @@
       <c r="F92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <v>14.282500000000001</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>4</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0</v>
       </c>
@@ -2260,8 +3920,26 @@
       <c r="F93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <v>15.9825</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>4</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0</v>
       </c>
@@ -2280,8 +3958,26 @@
       <c r="F94">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <v>17.682500000000001</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>4</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0</v>
       </c>
@@ -2300,8 +3996,26 @@
       <c r="F95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <v>16.282499999999999</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>4</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0</v>
       </c>
@@ -2320,8 +4034,26 @@
       <c r="F96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <v>17.982500000000002</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>4</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0</v>
       </c>
@@ -2340,8 +4072,26 @@
       <c r="F97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <v>19.682500000000001</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>4</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0</v>
       </c>
@@ -2360,8 +4110,26 @@
       <c r="F98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <v>18.282499999999999</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>4</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0</v>
       </c>
@@ -2380,8 +4148,26 @@
       <c r="F99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <v>19.982500000000002</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>4</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0</v>
       </c>
@@ -2400,8 +4186,26 @@
       <c r="F100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <v>21.682500000000001</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>4</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0</v>
       </c>
@@ -2420,8 +4224,26 @@
       <c r="F101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H101">
+        <v>14.282500000000001</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <v>3</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0</v>
       </c>
@@ -2440,8 +4262,26 @@
       <c r="F102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <v>15.9825</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>4</v>
+      </c>
+      <c r="K102">
+        <v>3</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0</v>
       </c>
@@ -2460,8 +4300,26 @@
       <c r="F103">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <v>17.682500000000001</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+      <c r="K103">
+        <v>3</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2480,8 +4338,26 @@
       <c r="F104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <v>16.282499999999999</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>4</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0</v>
       </c>
@@ -2500,8 +4376,26 @@
       <c r="F105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <v>17.982500000000002</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>4</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>0</v>
       </c>
@@ -2520,8 +4414,26 @@
       <c r="F106">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <v>19.682500000000001</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>4</v>
+      </c>
+      <c r="K106">
+        <v>3</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0</v>
       </c>
@@ -2540,8 +4452,26 @@
       <c r="F107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H107">
+        <v>18.282499999999999</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>4</v>
+      </c>
+      <c r="K107">
+        <v>3</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0</v>
       </c>
@@ -2560,8 +4490,26 @@
       <c r="F108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H108">
+        <v>19.982500000000002</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>4</v>
+      </c>
+      <c r="K108">
+        <v>3</v>
+      </c>
+      <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0</v>
       </c>
@@ -2580,8 +4528,26 @@
       <c r="F109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H109">
+        <v>21.682500000000001</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>4</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -2600,8 +4566,26 @@
       <c r="F110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H110">
+        <v>8.1530000000000005</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1</v>
       </c>
@@ -2620,8 +4604,26 @@
       <c r="F111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H111">
+        <v>11.553000000000001</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
@@ -2640,8 +4642,26 @@
       <c r="F112">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H112">
+        <v>14.952999999999999</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
       </c>
@@ -2660,8 +4680,26 @@
       <c r="F113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H113">
+        <v>10.153</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1</v>
       </c>
@@ -2680,8 +4718,26 @@
       <c r="F114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H114">
+        <v>13.553000000000001</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -2700,8 +4756,26 @@
       <c r="F115">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H115">
+        <v>16.952999999999999</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
@@ -2720,8 +4794,26 @@
       <c r="F116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H116">
+        <v>12.153</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1</v>
       </c>
@@ -2740,8 +4832,26 @@
       <c r="F117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H117">
+        <v>15.553000000000001</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>3</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1</v>
       </c>
@@ -2760,8 +4870,26 @@
       <c r="F118">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <v>18.952999999999999</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1</v>
       </c>
@@ -2780,8 +4908,26 @@
       <c r="F119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H119">
+        <v>8.1530000000000005</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1</v>
       </c>
@@ -2800,8 +4946,26 @@
       <c r="F120">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H120">
+        <v>11.553000000000001</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
@@ -2820,8 +4984,26 @@
       <c r="F121">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H121">
+        <v>14.952999999999999</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1</v>
       </c>
@@ -2840,8 +5022,26 @@
       <c r="F122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H122">
+        <v>10.153</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
@@ -2860,8 +5060,26 @@
       <c r="F123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H123">
+        <v>13.553000000000001</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -2880,8 +5098,26 @@
       <c r="F124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H124">
+        <v>16.952999999999999</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
@@ -2900,8 +5136,26 @@
       <c r="F125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H125">
+        <v>12.153</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
@@ -2920,8 +5174,26 @@
       <c r="F126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <v>15.553000000000001</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1</v>
       </c>
@@ -2940,8 +5212,26 @@
       <c r="F127">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H127">
+        <v>18.952999999999999</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
@@ -2960,8 +5250,26 @@
       <c r="F128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H128">
+        <v>8.1530000000000005</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
@@ -2980,8 +5288,26 @@
       <c r="F129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H129">
+        <v>11.553000000000001</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>3</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3000,8 +5326,26 @@
       <c r="F130">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H130">
+        <v>14.952999999999999</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3020,8 +5364,26 @@
       <c r="F131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H131">
+        <v>10.153</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>3</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3040,8 +5402,26 @@
       <c r="F132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H132">
+        <v>13.553000000000001</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>3</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3060,8 +5440,26 @@
       <c r="F133">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H133">
+        <v>16.952999999999999</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>3</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3080,8 +5478,26 @@
       <c r="F134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H134">
+        <v>12.153</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>3</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1</v>
       </c>
@@ -3100,8 +5516,26 @@
       <c r="F135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H135">
+        <v>15.553000000000001</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3120,8 +5554,26 @@
       <c r="F136">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H136">
+        <v>18.952999999999999</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3140,8 +5592,26 @@
       <c r="F137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H137">
+        <v>9.8858999999999995</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137">
+        <v>2</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -3160,8 +5630,26 @@
       <c r="F138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H138">
+        <v>13.2859</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1</v>
       </c>
@@ -3180,8 +5668,26 @@
       <c r="F139">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H139">
+        <v>16.6859</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
@@ -3200,8 +5706,26 @@
       <c r="F140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H140">
+        <v>11.885899999999999</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>2</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1</v>
       </c>
@@ -3220,8 +5744,26 @@
       <c r="F141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H141">
+        <v>15.2859</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>2</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -3240,8 +5782,26 @@
       <c r="F142">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H142">
+        <v>18.6859</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -3260,8 +5820,26 @@
       <c r="F143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H143">
+        <v>13.885899999999999</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1</v>
       </c>
@@ -3280,8 +5858,26 @@
       <c r="F144">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H144">
+        <v>17.285900000000002</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>2</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -3300,8 +5896,26 @@
       <c r="F145">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H145">
+        <v>20.6859</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1</v>
       </c>
@@ -3320,8 +5934,26 @@
       <c r="F146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H146">
+        <v>9.8858999999999995</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>2</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -3340,8 +5972,26 @@
       <c r="F147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H147">
+        <v>13.2859</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>2</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1</v>
       </c>
@@ -3360,8 +6010,26 @@
       <c r="F148">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H148">
+        <v>16.6859</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1</v>
       </c>
@@ -3380,8 +6048,26 @@
       <c r="F149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H149">
+        <v>11.885899999999999</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1</v>
       </c>
@@ -3400,8 +6086,26 @@
       <c r="F150">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H150">
+        <v>15.2859</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
@@ -3420,8 +6124,26 @@
       <c r="F151">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H151">
+        <v>18.6859</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
@@ -3440,8 +6162,26 @@
       <c r="F152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H152">
+        <v>13.885899999999999</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152">
+        <v>2</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
@@ -3460,8 +6200,26 @@
       <c r="F153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H153">
+        <v>17.285900000000002</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153">
+        <v>2</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>3</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1</v>
       </c>
@@ -3480,8 +6238,26 @@
       <c r="F154">
         <v>3</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H154">
+        <v>20.6859</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>2</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>3</v>
+      </c>
+      <c r="M154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
@@ -3500,8 +6276,26 @@
       <c r="F155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H155">
+        <v>9.8858999999999995</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <v>2</v>
+      </c>
+      <c r="K155">
+        <v>3</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
@@ -3520,8 +6314,26 @@
       <c r="F156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H156">
+        <v>13.2859</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>2</v>
+      </c>
+      <c r="K156">
+        <v>3</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1</v>
       </c>
@@ -3540,8 +6352,26 @@
       <c r="F157">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H157">
+        <v>16.6859</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157">
+        <v>2</v>
+      </c>
+      <c r="K157">
+        <v>3</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -3560,8 +6390,26 @@
       <c r="F158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H158">
+        <v>11.885899999999999</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>2</v>
+      </c>
+      <c r="K158">
+        <v>3</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
@@ -3580,8 +6428,26 @@
       <c r="F159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H159">
+        <v>15.2859</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>2</v>
+      </c>
+      <c r="K159">
+        <v>3</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -3600,8 +6466,26 @@
       <c r="F160">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H160">
+        <v>18.6859</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160">
+        <v>2</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -3620,8 +6504,26 @@
       <c r="F161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H161">
+        <v>13.885899999999999</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161">
+        <v>3</v>
+      </c>
+      <c r="L161">
+        <v>3</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -3640,8 +6542,26 @@
       <c r="F162">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H162">
+        <v>17.285900000000002</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162">
+        <v>2</v>
+      </c>
+      <c r="K162">
+        <v>3</v>
+      </c>
+      <c r="L162">
+        <v>3</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -3660,8 +6580,26 @@
       <c r="F163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H163">
+        <v>20.6859</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+      <c r="K163">
+        <v>3</v>
+      </c>
+      <c r="L163">
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -3680,8 +6618,26 @@
       <c r="F164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H164">
+        <v>12.225</v>
+      </c>
+      <c r="I164">
+        <v>2</v>
+      </c>
+      <c r="J164">
+        <v>3</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -3700,8 +6656,26 @@
       <c r="F165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H165">
+        <v>15.625</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>3</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -3720,8 +6694,26 @@
       <c r="F166">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H166">
+        <v>19.024999999999999</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>3</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -3740,8 +6732,26 @@
       <c r="F167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H167">
+        <v>14.225</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167">
+        <v>3</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -3760,8 +6770,26 @@
       <c r="F168">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H168">
+        <v>17.625</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>3</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -3780,8 +6808,26 @@
       <c r="F169">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H169">
+        <v>21.024999999999999</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>3</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -3800,8 +6846,26 @@
       <c r="F170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H170">
+        <v>16.225000000000001</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170">
+        <v>3</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>3</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -3820,8 +6884,26 @@
       <c r="F171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H171">
+        <v>19.625</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171">
+        <v>3</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>3</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1</v>
       </c>
@@ -3840,8 +6922,26 @@
       <c r="F172">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H172">
+        <v>23.024999999999999</v>
+      </c>
+      <c r="I172">
+        <v>2</v>
+      </c>
+      <c r="J172">
+        <v>3</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>3</v>
+      </c>
+      <c r="M172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1</v>
       </c>
@@ -3860,8 +6960,26 @@
       <c r="F173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H173">
+        <v>12.225</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173">
+        <v>3</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -3880,8 +6998,26 @@
       <c r="F174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H174">
+        <v>15.625</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <v>3</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -3900,8 +7036,26 @@
       <c r="F175">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H175">
+        <v>19.024999999999999</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <v>3</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1</v>
       </c>
@@ -3920,8 +7074,26 @@
       <c r="F176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H176">
+        <v>14.225</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>3</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1</v>
       </c>
@@ -3940,8 +7112,26 @@
       <c r="F177">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H177">
+        <v>17.625</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177">
+        <v>3</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
@@ -3960,8 +7150,26 @@
       <c r="F178">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H178">
+        <v>21.024999999999999</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+      <c r="J178">
+        <v>3</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1</v>
       </c>
@@ -3980,8 +7188,26 @@
       <c r="F179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H179">
+        <v>16.225000000000001</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179">
+        <v>3</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1</v>
       </c>
@@ -4000,8 +7226,26 @@
       <c r="F180">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H180">
+        <v>19.625</v>
+      </c>
+      <c r="I180">
+        <v>2</v>
+      </c>
+      <c r="J180">
+        <v>3</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4020,8 +7264,26 @@
       <c r="F181">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H181">
+        <v>23.024999999999999</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181">
+        <v>3</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>3</v>
+      </c>
+      <c r="M181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
@@ -4040,8 +7302,26 @@
       <c r="F182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H182">
+        <v>12.225</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182">
+        <v>3</v>
+      </c>
+      <c r="K182">
+        <v>3</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4060,8 +7340,26 @@
       <c r="F183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H183">
+        <v>15.625</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <v>3</v>
+      </c>
+      <c r="K183">
+        <v>3</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
@@ -4080,8 +7378,26 @@
       <c r="F184">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H184">
+        <v>19.024999999999999</v>
+      </c>
+      <c r="I184">
+        <v>2</v>
+      </c>
+      <c r="J184">
+        <v>3</v>
+      </c>
+      <c r="K184">
+        <v>3</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1</v>
       </c>
@@ -4100,8 +7416,26 @@
       <c r="F185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H185">
+        <v>14.225</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>3</v>
+      </c>
+      <c r="K185">
+        <v>3</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
@@ -4120,8 +7454,26 @@
       <c r="F186">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H186">
+        <v>17.625</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186">
+        <v>3</v>
+      </c>
+      <c r="K186">
+        <v>3</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
@@ -4140,8 +7492,26 @@
       <c r="F187">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H187">
+        <v>21.024999999999999</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187">
+        <v>3</v>
+      </c>
+      <c r="K187">
+        <v>3</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
@@ -4160,8 +7530,26 @@
       <c r="F188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H188">
+        <v>16.225000000000001</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <v>3</v>
+      </c>
+      <c r="K188">
+        <v>3</v>
+      </c>
+      <c r="L188">
+        <v>3</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -4180,8 +7568,26 @@
       <c r="F189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H189">
+        <v>19.625</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189">
+        <v>3</v>
+      </c>
+      <c r="K189">
+        <v>3</v>
+      </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1</v>
       </c>
@@ -4200,8 +7606,26 @@
       <c r="F190">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H190">
+        <v>23.024999999999999</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190">
+        <v>3</v>
+      </c>
+      <c r="K190">
+        <v>3</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
+      <c r="M190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1</v>
       </c>
@@ -4220,8 +7644,26 @@
       <c r="F191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H191">
+        <v>15.3825</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191">
+        <v>4</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
@@ -4240,8 +7682,26 @@
       <c r="F192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H192">
+        <v>18.782499999999999</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192">
+        <v>4</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
@@ -4260,8 +7720,26 @@
       <c r="F193">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H193">
+        <v>22.182500000000001</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
+      </c>
+      <c r="J193">
+        <v>4</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
@@ -4280,8 +7758,26 @@
       <c r="F194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H194">
+        <v>17.3825</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194">
+        <v>4</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -4300,8 +7796,26 @@
       <c r="F195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H195">
+        <v>20.782499999999999</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195">
+        <v>4</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
@@ -4320,8 +7834,26 @@
       <c r="F196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H196">
+        <v>24.182500000000001</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196">
+        <v>4</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>2</v>
+      </c>
+      <c r="M196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1</v>
       </c>
@@ -4340,8 +7872,26 @@
       <c r="F197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H197">
+        <v>19.3825</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>4</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>3</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -4360,8 +7910,26 @@
       <c r="F198">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H198">
+        <v>22.782499999999999</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198">
+        <v>4</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>3</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1</v>
       </c>
@@ -4380,8 +7948,26 @@
       <c r="F199">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H199">
+        <v>26.182500000000001</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>4</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>3</v>
+      </c>
+      <c r="M199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1</v>
       </c>
@@ -4400,8 +7986,26 @@
       <c r="F200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H200">
+        <v>15.3825</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200">
+        <v>4</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
@@ -4420,8 +8024,26 @@
       <c r="F201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H201">
+        <v>18.782499999999999</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201">
+        <v>4</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1</v>
       </c>
@@ -4440,8 +8062,26 @@
       <c r="F202">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H202">
+        <v>22.182500000000001</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202">
+        <v>4</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
@@ -4460,8 +8100,26 @@
       <c r="F203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H203">
+        <v>17.3825</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203">
+        <v>4</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1</v>
       </c>
@@ -4480,8 +8138,26 @@
       <c r="F204">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H204">
+        <v>20.782499999999999</v>
+      </c>
+      <c r="I204">
+        <v>2</v>
+      </c>
+      <c r="J204">
+        <v>4</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1</v>
       </c>
@@ -4500,8 +8176,26 @@
       <c r="F205">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H205">
+        <v>24.182500000000001</v>
+      </c>
+      <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205">
+        <v>4</v>
+      </c>
+      <c r="K205">
+        <v>2</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1</v>
       </c>
@@ -4520,8 +8214,26 @@
       <c r="F206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H206">
+        <v>19.3825</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206">
+        <v>4</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
+        <v>3</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1</v>
       </c>
@@ -4540,8 +8252,26 @@
       <c r="F207">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H207">
+        <v>22.782499999999999</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207">
+        <v>4</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>3</v>
+      </c>
+      <c r="M207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1</v>
       </c>
@@ -4560,8 +8290,26 @@
       <c r="F208">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H208">
+        <v>26.182500000000001</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208">
+        <v>4</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+      <c r="M208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1</v>
       </c>
@@ -4580,8 +8328,26 @@
       <c r="F209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H209">
+        <v>15.3825</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209">
+        <v>4</v>
+      </c>
+      <c r="K209">
+        <v>3</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1</v>
       </c>
@@ -4600,8 +8366,26 @@
       <c r="F210">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H210">
+        <v>18.782499999999999</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210">
+        <v>4</v>
+      </c>
+      <c r="K210">
+        <v>3</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
@@ -4620,8 +8404,26 @@
       <c r="F211">
         <v>3</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H211">
+        <v>22.182500000000001</v>
+      </c>
+      <c r="I211">
+        <v>2</v>
+      </c>
+      <c r="J211">
+        <v>4</v>
+      </c>
+      <c r="K211">
+        <v>3</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1</v>
       </c>
@@ -4640,8 +8442,26 @@
       <c r="F212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H212">
+        <v>17.3825</v>
+      </c>
+      <c r="I212">
+        <v>2</v>
+      </c>
+      <c r="J212">
+        <v>4</v>
+      </c>
+      <c r="K212">
+        <v>3</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1</v>
       </c>
@@ -4660,8 +8480,26 @@
       <c r="F213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H213">
+        <v>20.782499999999999</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213">
+        <v>4</v>
+      </c>
+      <c r="K213">
+        <v>3</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1</v>
       </c>
@@ -4680,8 +8518,26 @@
       <c r="F214">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H214">
+        <v>24.182500000000001</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214">
+        <v>4</v>
+      </c>
+      <c r="K214">
+        <v>3</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1</v>
       </c>
@@ -4700,8 +8556,26 @@
       <c r="F215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H215">
+        <v>19.3825</v>
+      </c>
+      <c r="I215">
+        <v>2</v>
+      </c>
+      <c r="J215">
+        <v>4</v>
+      </c>
+      <c r="K215">
+        <v>3</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1</v>
       </c>
@@ -4720,8 +8594,26 @@
       <c r="F216">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H216">
+        <v>22.782499999999999</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216">
+        <v>4</v>
+      </c>
+      <c r="K216">
+        <v>3</v>
+      </c>
+      <c r="L216">
+        <v>3</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1</v>
       </c>
@@ -4738,6 +8630,24 @@
         <v>3</v>
       </c>
       <c r="F217">
+        <v>3</v>
+      </c>
+      <c r="H217">
+        <v>26.182500000000001</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217">
+        <v>4</v>
+      </c>
+      <c r="K217">
+        <v>3</v>
+      </c>
+      <c r="L217">
+        <v>3</v>
+      </c>
+      <c r="M217">
         <v>3</v>
       </c>
     </row>

--- a/ini_ss.xlsx
+++ b/ini_ss.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:M217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K38" sqref="H38:K38"/>
+      <selection activeCell="M188" sqref="M188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7511,41 +7511,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>1</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188">
-        <v>3</v>
-      </c>
-      <c r="D188">
-        <v>3</v>
-      </c>
-      <c r="E188">
-        <v>3</v>
-      </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-      <c r="H188">
+    <row r="188" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>1</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1</v>
+      </c>
+      <c r="C188" s="1">
+        <v>3</v>
+      </c>
+      <c r="D188" s="1">
+        <v>3</v>
+      </c>
+      <c r="E188" s="1">
+        <v>3</v>
+      </c>
+      <c r="F188" s="1">
+        <v>1</v>
+      </c>
+      <c r="H188" s="1">
         <v>16.225000000000001</v>
       </c>
-      <c r="I188">
-        <v>2</v>
-      </c>
-      <c r="J188">
-        <v>3</v>
-      </c>
-      <c r="K188">
-        <v>3</v>
-      </c>
-      <c r="L188">
-        <v>3</v>
-      </c>
-      <c r="M188">
+      <c r="I188" s="1">
+        <v>2</v>
+      </c>
+      <c r="J188" s="1">
+        <v>3</v>
+      </c>
+      <c r="K188" s="1">
+        <v>3</v>
+      </c>
+      <c r="L188" s="1">
+        <v>3</v>
+      </c>
+      <c r="M188" s="1">
         <v>1</v>
       </c>
     </row>
